--- a/10_Areal- og stedsutvikling/Arealregnskap/Data/Arealregnskap/Kommunefiler/Mappe for nedlastning/Arealregnskap_Vestfold_2023_oppdatert_20240315.xlsx
+++ b/10_Areal- og stedsutvikling/Arealregnskap/Data/Arealregnskap/Kommunefiler/Mappe for nedlastning/Arealregnskap_Vestfold_2023_oppdatert_20240315.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ras0708\OneDrive - Vestfold fylkeskommmune\Dokumenter\GitHub\Vestfold\Vestfold\Vestfold\10_Areal- og stedsutvikling\Arealregnskap\Data\Arealregnskap\Kommunefiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/10_Areal- og stedsutvikling/Arealregnskap/Data/Arealregnskap/Kommunefiler/Mappe for nedlastning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0DF23DBC-C9D4-4388-9A72-12458720E0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{0DF23DBC-C9D4-4388-9A72-12458720E0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ECB0D38-3AAD-4A15-9F7E-D1CE6F55AE03}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Færder" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="990">
   <si>
     <t>Færder</t>
   </si>
@@ -1170,12 +1170,6 @@
     <t>Tønsberg</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Bebygd,11642</t>
-  </si>
-  <si>
-    <t>01 Bolig eller sentrumsformål,Samferdsel,569</t>
-  </si>
-  <si>
     <t>01 Bolig eller sentrumsformål,Fulldyrka jord,161</t>
   </si>
   <si>
@@ -1185,9 +1179,6 @@
     <t>01 Bolig eller sentrumsformål,Innmarksbeite,0</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Skog,1708</t>
-  </si>
-  <si>
     <t>01 Bolig eller sentrumsformål,Åpen fastmark,157</t>
   </si>
   <si>
@@ -1212,12 +1203,6 @@
     <t>02 Fritidsbebyggelse,Myr,0</t>
   </si>
   <si>
-    <t>03 Tjenesteyting,Bebygd,1214</t>
-  </si>
-  <si>
-    <t>03 Tjenesteyting,Samferdsel,128</t>
-  </si>
-  <si>
     <t>03 Tjenesteyting,Fulldyrka jord,126</t>
   </si>
   <si>
@@ -1230,9 +1215,6 @@
     <t>03 Tjenesteyting,Skog,334</t>
   </si>
   <si>
-    <t>03 Tjenesteyting,Åpen fastmark,68</t>
-  </si>
-  <si>
     <t>03 Tjenesteyting,Myr,1</t>
   </si>
   <si>
@@ -1272,21 +1254,12 @@
     <t>05 Turistformål,Hav,1</t>
   </si>
   <si>
-    <t>06 Næringsvirksomhet,Bebygd,2322</t>
-  </si>
-  <si>
-    <t>06 Næringsvirksomhet,Samferdsel,248</t>
-  </si>
-  <si>
     <t>06 Næringsvirksomhet,Fulldyrka jord,74</t>
   </si>
   <si>
     <t>06 Næringsvirksomhet,Innmarksbeite,4</t>
   </si>
   <si>
-    <t>06 Næringsvirksomhet,Skog,1355</t>
-  </si>
-  <si>
     <t>06 Næringsvirksomhet,Åpen fastmark,122</t>
   </si>
   <si>
@@ -1314,12 +1287,6 @@
     <t>07 Råstoffutvinning,Ferskvann,0</t>
   </si>
   <si>
-    <t>08 Kombinerte formål,Bebygd,835</t>
-  </si>
-  <si>
-    <t>08 Kombinerte formål,Samferdsel,72</t>
-  </si>
-  <si>
     <t>08 Kombinerte formål,Fulldyrka jord,122</t>
   </si>
   <si>
@@ -1332,12 +1299,6 @@
     <t>08 Kombinerte formål,Åpen fastmark,215</t>
   </si>
   <si>
-    <t>09 Idrettsanlegg,Bebygd,326</t>
-  </si>
-  <si>
-    <t>09 Idrettsanlegg,Samferdsel,55</t>
-  </si>
-  <si>
     <t>09 Idrettsanlegg,Fulldyrka jord,220</t>
   </si>
   <si>
@@ -1353,12 +1314,6 @@
     <t>09 Idrettsanlegg,Ferskvann,2</t>
   </si>
   <si>
-    <t>10 Andre formål,Bebygd,576</t>
-  </si>
-  <si>
-    <t>10 Andre formål,Samferdsel,44</t>
-  </si>
-  <si>
     <t>10 Andre formål,Fulldyrka jord,27</t>
   </si>
   <si>
@@ -1374,12 +1329,6 @@
     <t>10 Andre formål,Ferskvann,5</t>
   </si>
   <si>
-    <t>11 Samferdselsanlegg,Bebygd,849</t>
-  </si>
-  <si>
-    <t>11 Samferdselsanlegg,Samferdsel,5247</t>
-  </si>
-  <si>
     <t>11 Samferdselsanlegg,Fulldyrka jord,408</t>
   </si>
   <si>
@@ -1389,48 +1338,21 @@
     <t>11 Samferdselsanlegg,Innmarksbeite,8</t>
   </si>
   <si>
-    <t>11 Samferdselsanlegg,Skog,546</t>
-  </si>
-  <si>
-    <t>11 Samferdselsanlegg,Åpen fastmark,940</t>
-  </si>
-  <si>
     <t>11 Samferdselsanlegg,Myr,17</t>
   </si>
   <si>
     <t>11 Samferdselsanlegg,Ferskvann,5</t>
   </si>
   <si>
-    <t>12 Blå/grønnstruktur,Bebygd,907</t>
-  </si>
-  <si>
-    <t>12 Blå/grønnstruktur,Samferdsel,244</t>
-  </si>
-  <si>
     <t>12 Blå/grønnstruktur,Fulldyrka jord,174</t>
   </si>
   <si>
     <t>12 Blå/grønnstruktur,Overflatedyrka jord,16</t>
   </si>
   <si>
-    <t>12 Blå/grønnstruktur,Innmarksbeite,58</t>
-  </si>
-  <si>
-    <t>12 Blå/grønnstruktur,Skog,3221</t>
-  </si>
-  <si>
-    <t>12 Blå/grønnstruktur,Åpen fastmark,946</t>
-  </si>
-  <si>
     <t>12 Blå/grønnstruktur,Myr,122</t>
   </si>
   <si>
-    <t>12 Blå/grønnstruktur,Ferskvann,17</t>
-  </si>
-  <si>
-    <t>12 Blå/grønnstruktur,Hav,20</t>
-  </si>
-  <si>
     <t>13 Forsvaret,Bebygd,5</t>
   </si>
   <si>
@@ -1443,27 +1365,12 @@
     <t>13 Forsvaret,Åpen fastmark,1</t>
   </si>
   <si>
-    <t>14 LNFR,Bebygd,8402</t>
-  </si>
-  <si>
-    <t>14 LNFR,Samferdsel,4497</t>
-  </si>
-  <si>
     <t>14 LNFR,Fulldyrka jord,113205</t>
   </si>
   <si>
     <t>14 LNFR,Overflatedyrka jord,353</t>
   </si>
   <si>
-    <t>14 LNFR,Innmarksbeite,2949</t>
-  </si>
-  <si>
-    <t>14 LNFR,Skog,143340</t>
-  </si>
-  <si>
-    <t>14 LNFR,Åpen fastmark,3657</t>
-  </si>
-  <si>
     <t>14 LNFR,Myr,2830</t>
   </si>
   <si>
@@ -1497,18 +1404,9 @@
     <t>15 LNFR spredt,Ferskvann,8</t>
   </si>
   <si>
-    <t>16 Havner og småbåthavner,Bebygd,10</t>
-  </si>
-  <si>
-    <t>16 Havner og småbåthavner,Samferdsel,7</t>
-  </si>
-  <si>
     <t>16 Havner og småbåthavner,Åpen fastmark,1</t>
   </si>
   <si>
-    <t>16 Havner og småbåthavner,Hav,220</t>
-  </si>
-  <si>
     <t>17 Sjø og vassdrag, flerbruk,Bebygd,1</t>
   </si>
   <si>
@@ -1521,12 +1419,6 @@
     <t>17 Sjø og vassdrag, flerbruk,Åpen fastmark,19</t>
   </si>
   <si>
-    <t>17 Sjø og vassdrag, flerbruk,Ferskvann,4176</t>
-  </si>
-  <si>
-    <t>17 Sjø og vassdrag, flerbruk,Hav,53555</t>
-  </si>
-  <si>
     <t>18 Akvakultur,Bebygd,0</t>
   </si>
   <si>
@@ -2631,24 +2523,9 @@
     <t>Horten</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Bebygd,5443</t>
-  </si>
-  <si>
-    <t>01 Bolig eller sentrumsformål,Samferdsel,553</t>
-  </si>
-  <si>
-    <t>01 Bolig eller sentrumsformål,Fulldyrka jord,63</t>
-  </si>
-  <si>
     <t>01 Bolig eller sentrumsformål,Innmarksbeite,3</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Skog,748</t>
-  </si>
-  <si>
-    <t>01 Bolig eller sentrumsformål,Åpen fastmark,67</t>
-  </si>
-  <si>
     <t>01 Bolig eller sentrumsformål,Myr,0</t>
   </si>
   <si>
@@ -2667,165 +2544,69 @@
     <t>02 Fritidsbebyggelse,Åpen fastmark,17</t>
   </si>
   <si>
-    <t>03 Tjenesteyting,Bebygd,616</t>
-  </si>
-  <si>
-    <t>03 Tjenesteyting,Samferdsel,90</t>
-  </si>
-  <si>
     <t>03 Tjenesteyting,Fulldyrka jord,60</t>
   </si>
   <si>
     <t>03 Tjenesteyting,Innmarksbeite,7</t>
   </si>
   <si>
-    <t>03 Tjenesteyting,Skog,122</t>
-  </si>
-  <si>
     <t>03 Tjenesteyting,Åpen fastmark,111</t>
   </si>
   <si>
     <t>03 Tjenesteyting,Hav,3</t>
   </si>
   <si>
-    <t>04 Handel,Bebygd,27</t>
-  </si>
-  <si>
     <t>04 Handel,Skog,0</t>
   </si>
   <si>
-    <t>05 Turistformål,Bebygd,27</t>
-  </si>
-  <si>
     <t>05 Turistformål,Skog,21</t>
   </si>
   <si>
     <t>05 Turistformål,Åpen fastmark,55</t>
   </si>
   <si>
-    <t>06 Næringsvirksomhet,Bebygd,724</t>
-  </si>
-  <si>
-    <t>06 Næringsvirksomhet,Samferdsel,58</t>
-  </si>
-  <si>
-    <t>06 Næringsvirksomhet,Skog,87</t>
-  </si>
-  <si>
-    <t>06 Næringsvirksomhet,Åpen fastmark,31</t>
-  </si>
-  <si>
-    <t>07 Råstoffutvinning,Bebygd,108</t>
-  </si>
-  <si>
-    <t>07 Råstoffutvinning,Samferdsel,6</t>
-  </si>
-  <si>
-    <t>07 Råstoffutvinning,Skog,23</t>
-  </si>
-  <si>
-    <t>07 Råstoffutvinning,Åpen fastmark,3</t>
-  </si>
-  <si>
-    <t>08 Kombinerte formål,Bebygd,381</t>
-  </si>
-  <si>
-    <t>08 Kombinerte formål,Samferdsel,42</t>
-  </si>
-  <si>
     <t>08 Kombinerte formål,Fulldyrka jord,2</t>
   </si>
   <si>
-    <t>08 Kombinerte formål,Skog,243</t>
-  </si>
-  <si>
-    <t>08 Kombinerte formål,Åpen fastmark,42</t>
-  </si>
-  <si>
     <t>08 Kombinerte formål,Hav,1</t>
   </si>
   <si>
-    <t>09 Idrettsanlegg,Bebygd,125</t>
-  </si>
-  <si>
-    <t>09 Idrettsanlegg,Samferdsel,15</t>
-  </si>
-  <si>
     <t>09 Idrettsanlegg,Overflatedyrka jord,29</t>
   </si>
   <si>
-    <t>09 Idrettsanlegg,Skog,197</t>
-  </si>
-  <si>
-    <t>09 Idrettsanlegg,Åpen fastmark,484</t>
-  </si>
-  <si>
     <t>09 Idrettsanlegg,Ferskvann,14</t>
   </si>
   <si>
-    <t>10 Andre formål,Bebygd,238</t>
-  </si>
-  <si>
-    <t>10 Andre formål,Samferdsel,14</t>
-  </si>
-  <si>
     <t>10 Andre formål,Fulldyrka jord,100</t>
   </si>
   <si>
     <t>10 Andre formål,Skog,44</t>
   </si>
   <si>
-    <t>10 Andre formål,Åpen fastmark,17</t>
-  </si>
-  <si>
     <t>10 Andre formål,Ferskvann,4</t>
   </si>
   <si>
     <t>10 Andre formål,Hav,0</t>
   </si>
   <si>
-    <t>11 Samferdselsanlegg,Bebygd,753</t>
-  </si>
-  <si>
-    <t>11 Samferdselsanlegg,Samferdsel,1762</t>
-  </si>
-  <si>
     <t>11 Samferdselsanlegg,Fulldyrka jord,98</t>
   </si>
   <si>
     <t>11 Samferdselsanlegg,Innmarksbeite,3</t>
   </si>
   <si>
-    <t>11 Samferdselsanlegg,Skog,294</t>
-  </si>
-  <si>
     <t>11 Samferdselsanlegg,Åpen fastmark,437</t>
   </si>
   <si>
-    <t>12 Blå/grønnstruktur,Bebygd,448</t>
-  </si>
-  <si>
-    <t>12 Blå/grønnstruktur,Samferdsel,142</t>
-  </si>
-  <si>
     <t>12 Blå/grønnstruktur,Fulldyrka jord,7</t>
   </si>
   <si>
     <t>12 Blå/grønnstruktur,Innmarksbeite,0</t>
   </si>
   <si>
-    <t>12 Blå/grønnstruktur,Skog,1186</t>
-  </si>
-  <si>
-    <t>12 Blå/grønnstruktur,Åpen fastmark,503</t>
-  </si>
-  <si>
     <t>12 Blå/grønnstruktur,Myr,51</t>
   </si>
   <si>
-    <t>12 Blå/grønnstruktur,Ferskvann,4</t>
-  </si>
-  <si>
     <t>12 Blå/grønnstruktur,Hav,35</t>
   </si>
   <si>
@@ -2847,27 +2628,12 @@
     <t>13 Forsvaret,Hav,2</t>
   </si>
   <si>
-    <t>14 LNFR,Bebygd,2068</t>
-  </si>
-  <si>
-    <t>14 LNFR,Samferdsel,1174</t>
-  </si>
-  <si>
-    <t>14 LNFR,Fulldyrka jord,19192</t>
-  </si>
-  <si>
     <t>14 LNFR,Overflatedyrka jord,46</t>
   </si>
   <si>
     <t>14 LNFR,Innmarksbeite,591</t>
   </si>
   <si>
-    <t>14 LNFR,Skog,25545</t>
-  </si>
-  <si>
-    <t>14 LNFR,Åpen fastmark,1103</t>
-  </si>
-  <si>
     <t>14 LNFR,Myr,403</t>
   </si>
   <si>
@@ -2877,18 +2643,9 @@
     <t>14 LNFR,Hav,21</t>
   </si>
   <si>
-    <t>15 LNFR spredt,Bebygd,26</t>
-  </si>
-  <si>
-    <t>15 LNFR spredt,Skog,5</t>
-  </si>
-  <si>
     <t>16 Havner og småbåthavner,Bebygd,13</t>
   </si>
   <si>
-    <t>16 Havner og småbåthavner,Samferdsel,48</t>
-  </si>
-  <si>
     <t>16 Havner og småbåthavner,Åpen fastmark,6</t>
   </si>
   <si>
@@ -2904,9 +2661,6 @@
     <t>17 Sjø og vassdrag, flerbruk,Åpen fastmark,22</t>
   </si>
   <si>
-    <t>17 Sjø og vassdrag, flerbruk,Ferskvann,1953</t>
-  </si>
-  <si>
     <t>17 Sjø og vassdrag, flerbruk,Hav,78776</t>
   </si>
   <si>
@@ -2934,12 +2688,6 @@
     <t>01 Bolig eller sentrumsformål,Fulldyrka jord,37</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Skog,569</t>
-  </si>
-  <si>
-    <t>01 Bolig eller sentrumsformål,Åpen fastmark,29</t>
-  </si>
-  <si>
     <t>02 Fritidsbebyggelse,Skog,21</t>
   </si>
   <si>
@@ -2952,49 +2700,307 @@
     <t>03 Tjenesteyting,Myr,0</t>
   </si>
   <si>
-    <t>06 Næringsvirksomhet,Skog,72</t>
-  </si>
-  <si>
-    <t>06 Næringsvirksomhet,Åpen fastmark,12</t>
-  </si>
-  <si>
-    <t>07 Råstoffutvinning,Skog,22</t>
-  </si>
-  <si>
-    <t>07 Råstoffutvinning,Åpen fastmark,2</t>
-  </si>
-  <si>
-    <t>08 Kombinerte formål,Skog,231</t>
-  </si>
-  <si>
-    <t>08 Kombinerte formål,Åpen fastmark,27</t>
-  </si>
-  <si>
     <t>09 Idrettsanlegg,Fulldyrka jord,21</t>
   </si>
   <si>
     <t>09 Idrettsanlegg,Overflatedyrka jord,6</t>
   </si>
   <si>
-    <t>09 Idrettsanlegg,Skog,106</t>
-  </si>
-  <si>
-    <t>09 Idrettsanlegg,Åpen fastmark,11</t>
-  </si>
-  <si>
     <t>11 Samferdselsanlegg,Fulldyrka jord,20</t>
   </si>
   <si>
-    <t>11 Samferdselsanlegg,Skog,31</t>
-  </si>
-  <si>
     <t>11 Samferdselsanlegg,Åpen fastmark,37</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Bebygd,5682</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Samferdsel,571</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Fulldyrka jord,64</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Skog,979</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Åpen fastmark,72</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Bebygd,625</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Samferdsel,89</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Skog,114</t>
+  </si>
+  <si>
+    <t>04 Handel,Bebygd,33</t>
+  </si>
+  <si>
+    <t>05 Turistformål,Bebygd,21</t>
+  </si>
+  <si>
+    <t>05 Turistformål,Samferdsel,17</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Bebygd,716</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Samferdsel,63</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Fulldyrka jord,14</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Skog,110</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Åpen fastmark,35</t>
+  </si>
+  <si>
+    <t>07 Råstoffutvinning,Bebygd,52</t>
+  </si>
+  <si>
+    <t>07 Råstoffutvinning,Skog,13</t>
+  </si>
+  <si>
+    <t>07 Råstoffutvinning,Åpen fastmark,0</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Bebygd,539</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Samferdsel,86</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Skog,258</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Bebygd,138</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Samferdsel,17</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Fulldyrka jord,162</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Skog,200</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Åpen fastmark,510</t>
+  </si>
+  <si>
+    <t>10 Andre formål,Bebygd,317</t>
+  </si>
+  <si>
+    <t>10 Andre formål,Samferdsel,16</t>
+  </si>
+  <si>
+    <t>10 Andre formål,Åpen fastmark,18</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Bebygd,758</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Samferdsel,1845</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Skog,291</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Bebygd,491</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Samferdsel,148</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Skog,1225</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Åpen fastmark,524</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Ferskvann,5</t>
+  </si>
+  <si>
+    <t>14 LNFR,Bebygd,1560</t>
+  </si>
+  <si>
+    <t>14 LNFR,Samferdsel,1017</t>
+  </si>
+  <si>
+    <t>14 LNFR,Fulldyrka jord,19180</t>
+  </si>
+  <si>
+    <t>14 LNFR,Skog,25248</t>
+  </si>
+  <si>
+    <t>14 LNFR,Åpen fastmark,1034</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Bebygd,50</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Samferdsel,4</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Fulldyrka jord,2</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Skog,11</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Åpen fastmark,18</t>
+  </si>
+  <si>
+    <t>16 Havner og småbåthavner,Samferdsel,50</t>
+  </si>
+  <si>
+    <t>17 Sjø og vassdrag, flerbruk,Ferskvann,1952</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Skog,779</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Åpen fastmark,33</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Skog,95</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Åpen fastmark,15</t>
+  </si>
+  <si>
+    <t>07 Råstoffutvinning,Skog,12</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Skog,245</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Åpen fastmark,35</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Skog,107</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Åpen fastmark,15</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Skog,29</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Bebygd,11881</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Samferdsel,587</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Skog,1709</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Bebygd,1232</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Samferdsel,141</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Åpen fastmark,73</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Bebygd,2399</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Samferdsel,252</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Skog,1356</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Bebygd,994</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Samferdsel,96</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Bebygd,329</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Samferdsel,56</t>
+  </si>
+  <si>
+    <t>10 Andre formål,Bebygd,582</t>
+  </si>
+  <si>
+    <t>10 Andre formål,Samferdsel,46</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Bebygd,875</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Samferdsel,5372</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Skog,547</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Åpen fastmark,941</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Bebygd,957</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Samferdsel,274</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Innmarksbeite,63</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Skog,3235</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Åpen fastmark,978</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Ferskvann,18</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Hav,31</t>
+  </si>
+  <si>
+    <t>14 LNFR,Bebygd,7821</t>
+  </si>
+  <si>
+    <t>14 LNFR,Samferdsel,4278</t>
+  </si>
+  <si>
+    <t>14 LNFR,Innmarksbeite,2944</t>
+  </si>
+  <si>
+    <t>14 LNFR,Skog,143322</t>
+  </si>
+  <si>
+    <t>14 LNFR,Åpen fastmark,3620</t>
+  </si>
+  <si>
+    <t>16 Havner og småbåthavner,Samferdsel,10</t>
+  </si>
+  <si>
+    <t>16 Havner og småbåthavner,Hav,261</t>
+  </si>
+  <si>
+    <t>17 Sjø og vassdrag, flerbruk,Ferskvann,4175</t>
+  </si>
+  <si>
+    <t>17 Sjø og vassdrag, flerbruk,Hav,53504</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3856,10 +3862,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4744,7 +4750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5731,11 +5737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5770,63 +5776,63 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>955</v>
       </c>
       <c r="D4" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>956</v>
       </c>
       <c r="D5" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>957</v>
       </c>
       <c r="D9" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -5834,10 +5840,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D12" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5845,44 +5851,44 @@
         <v>333</v>
       </c>
       <c r="D13" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D14" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D15" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D16" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D17" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -5893,28 +5899,28 @@
         <v>339</v>
       </c>
       <c r="D19" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>958</v>
       </c>
       <c r="D20" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>959</v>
       </c>
       <c r="D21" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D22" t="s">
         <v>217</v>
@@ -5922,42 +5928,42 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D23" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D24" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D25" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>401</v>
+        <v>960</v>
       </c>
       <c r="D26" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D27" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5973,68 +5979,68 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D30" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D31" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D32" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D33" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D34" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D35" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D36" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D37" t="s">
         <v>99</v>
@@ -6042,15 +6048,15 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D38" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D39" t="s">
         <v>368</v>
@@ -6058,23 +6064,23 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D40" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D41" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>415</v>
+        <v>961</v>
       </c>
       <c r="D42" t="s">
         <v>70</v>
@@ -6082,7 +6088,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>416</v>
+        <v>962</v>
       </c>
       <c r="D43" t="s">
         <v>72</v>
@@ -6090,63 +6096,63 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D44" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D45" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>419</v>
+        <v>963</v>
       </c>
       <c r="D46" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D47" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D48" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D49" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D50" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D51" t="s">
         <v>378</v>
@@ -6154,7 +6160,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -6164,47 +6170,47 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>429</v>
+        <v>964</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>430</v>
+        <v>965</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -6219,72 +6225,72 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>435</v>
+        <v>966</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>436</v>
+        <v>967</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>442</v>
+        <v>968</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>443</v>
+        <v>969</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
@@ -6294,47 +6300,47 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>449</v>
+        <v>970</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>450</v>
+        <v>971</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>454</v>
+        <v>972</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>455</v>
+        <v>973</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
@@ -6344,192 +6350,192 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>458</v>
+        <v>974</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>459</v>
+        <v>975</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>462</v>
+        <v>976</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>463</v>
+        <v>977</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>464</v>
+        <v>978</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>466</v>
+        <v>979</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>467</v>
+        <v>980</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>472</v>
+        <v>981</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>473</v>
+        <v>982</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>476</v>
+        <v>983</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>477</v>
+        <v>984</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>478</v>
+        <v>985</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>490</v>
+        <v>872</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>491</v>
+        <v>986</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>493</v>
+        <v>987</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
@@ -6539,47 +6545,47 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>498</v>
+        <v>988</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>499</v>
+        <v>989</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
@@ -6589,12 +6595,12 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
@@ -6604,42 +6610,42 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
@@ -6649,7 +6655,7 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -6658,7 +6664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6674,7 +6680,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -6698,55 +6704,55 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="D4" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="D5" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="D6" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="D7" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="D8" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="D9" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -6754,7 +6760,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="D11" t="s">
         <v>333</v>
@@ -6765,12 +6771,12 @@
         <v>333</v>
       </c>
       <c r="D12" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -6778,23 +6784,23 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="D14" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="D15" t="s">
-        <v>690</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="D16" t="s">
         <v>339</v>
@@ -6802,82 +6808,82 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="D17" t="s">
-        <v>691</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="D18" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="D19" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="D20" t="s">
-        <v>694</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="D21" t="s">
-        <v>695</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="D22" t="s">
-        <v>696</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="D23" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="D24" t="s">
-        <v>697</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="D25" t="s">
-        <v>698</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="D26" t="s">
-        <v>699</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -6885,7 +6891,7 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -6893,47 +6899,47 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>701</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="D29" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="D30" t="s">
-        <v>702</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="D31" t="s">
-        <v>703</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="D32" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="D33" t="s">
-        <v>705</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -6941,47 +6947,47 @@
         <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>706</v>
+        <v>670</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="D35" t="s">
-        <v>707</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="D36" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="D37" t="s">
-        <v>709</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="D38" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="D39" t="s">
-        <v>711</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -6989,7 +6995,7 @@
         <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -6997,28 +7003,28 @@
         <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>713</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="D42" t="s">
-        <v>714</v>
+        <v>678</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="D43" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="D44" t="s">
         <v>72</v>
@@ -7026,55 +7032,55 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="D45" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="D46" t="s">
-        <v>717</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>555</v>
+      </c>
+      <c r="D47" t="s">
         <v>591</v>
-      </c>
-      <c r="D47" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="D48" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="D49" t="s">
-        <v>719</v>
+        <v>683</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="D50" t="s">
-        <v>720</v>
+        <v>684</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="D51" t="s">
         <v>378</v>
@@ -7082,60 +7088,60 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="D52" t="s">
-        <v>721</v>
+        <v>685</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -7150,132 +7156,132 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
@@ -7285,142 +7291,142 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
@@ -7430,42 +7436,42 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
@@ -7475,77 +7481,77 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>671</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>673</v>
+        <v>637</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>677</v>
+        <v>641</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>679</v>
+        <v>643</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
@@ -7555,7 +7561,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -7564,7 +7570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7579,7 +7585,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -7603,23 +7609,23 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>723</v>
+        <v>687</v>
       </c>
       <c r="D4" t="s">
-        <v>835</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="D5" t="s">
-        <v>836</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>725</v>
+        <v>689</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -7630,7 +7636,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>837</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7638,20 +7644,20 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>838</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>726</v>
+        <v>690</v>
       </c>
       <c r="D9" t="s">
-        <v>839</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>727</v>
+        <v>691</v>
       </c>
       <c r="D10" t="s">
         <v>333</v>
@@ -7667,26 +7673,26 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>728</v>
+        <v>692</v>
       </c>
       <c r="D12" t="s">
-        <v>840</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
       <c r="D13" t="s">
-        <v>841</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>730</v>
+        <v>694</v>
       </c>
       <c r="D14" t="s">
-        <v>842</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7694,7 +7700,7 @@
         <v>199</v>
       </c>
       <c r="D15" t="s">
-        <v>843</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -7702,12 +7708,12 @@
         <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>844</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
@@ -7715,18 +7721,18 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="D18" t="s">
-        <v>845</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D19" t="s">
-        <v>846</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7734,28 +7740,28 @@
         <v>339</v>
       </c>
       <c r="D20" t="s">
-        <v>847</v>
+        <v>811</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
       <c r="D21" t="s">
-        <v>848</v>
+        <v>812</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>734</v>
+        <v>698</v>
       </c>
       <c r="D22" t="s">
-        <v>849</v>
+        <v>813</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="D23" t="s">
         <v>355</v>
@@ -7763,26 +7769,26 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
       <c r="D24" t="s">
-        <v>850</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
       <c r="D25" t="s">
-        <v>851</v>
+        <v>815</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>737</v>
+        <v>701</v>
       </c>
       <c r="D26" t="s">
-        <v>852</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7790,7 +7796,7 @@
         <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7798,12 +7804,12 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>853</v>
+        <v>817</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>738</v>
+        <v>702</v>
       </c>
       <c r="D29" t="s">
         <v>363</v>
@@ -7811,23 +7817,23 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>739</v>
+        <v>703</v>
       </c>
       <c r="D30" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="D31" t="s">
-        <v>855</v>
+        <v>819</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>740</v>
+        <v>704</v>
       </c>
       <c r="D32" t="s">
         <v>98</v>
@@ -7835,55 +7841,55 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="D33" t="s">
-        <v>856</v>
+        <v>820</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>741</v>
+        <v>705</v>
       </c>
       <c r="D34" t="s">
-        <v>857</v>
+        <v>821</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>742</v>
+        <v>706</v>
       </c>
       <c r="D35" t="s">
-        <v>858</v>
+        <v>822</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>743</v>
+        <v>707</v>
       </c>
       <c r="D36" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
       <c r="D37" t="s">
-        <v>860</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>745</v>
+        <v>709</v>
       </c>
       <c r="D38" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>746</v>
+        <v>710</v>
       </c>
       <c r="D39" t="s">
         <v>258</v>
@@ -7891,23 +7897,23 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>747</v>
+        <v>711</v>
       </c>
       <c r="D40" t="s">
-        <v>861</v>
+        <v>825</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>748</v>
+        <v>712</v>
       </c>
       <c r="D41" t="s">
-        <v>862</v>
+        <v>826</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>749</v>
+        <v>713</v>
       </c>
       <c r="D42" t="s">
         <v>122</v>
@@ -7915,39 +7921,39 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>750</v>
+        <v>714</v>
       </c>
       <c r="D43" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>751</v>
+        <v>715</v>
       </c>
       <c r="D44" t="s">
-        <v>863</v>
+        <v>827</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>752</v>
+        <v>716</v>
       </c>
       <c r="D45" t="s">
-        <v>864</v>
+        <v>828</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
       <c r="D46" t="s">
-        <v>865</v>
+        <v>829</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>754</v>
+        <v>718</v>
       </c>
       <c r="D47" t="s">
         <v>378</v>
@@ -7955,45 +7961,45 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="D48" t="s">
-        <v>866</v>
+        <v>830</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>756</v>
+        <v>720</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>757</v>
+        <v>721</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>759</v>
+        <v>723</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>760</v>
+        <v>724</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
@@ -8003,12 +8009,12 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>764</v>
+        <v>728</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
@@ -8018,47 +8024,47 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>765</v>
+        <v>729</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>768</v>
+        <v>732</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>769</v>
+        <v>733</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>770</v>
+        <v>734</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>772</v>
+        <v>736</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>773</v>
+        <v>737</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -8068,62 +8074,62 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
@@ -8133,12 +8139,12 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>786</v>
+        <v>750</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>787</v>
+        <v>751</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
@@ -8148,7 +8154,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
@@ -8158,117 +8164,117 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>789</v>
+        <v>753</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>790</v>
+        <v>754</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>791</v>
+        <v>755</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>792</v>
+        <v>756</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>793</v>
+        <v>757</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>794</v>
+        <v>758</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>796</v>
+        <v>760</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>797</v>
+        <v>761</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>799</v>
+        <v>763</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>800</v>
+        <v>764</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>801</v>
+        <v>765</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>802</v>
+        <v>766</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>803</v>
+        <v>767</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>804</v>
+        <v>768</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>805</v>
+        <v>769</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>806</v>
+        <v>770</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>807</v>
+        <v>771</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>808</v>
+        <v>772</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>809</v>
+        <v>773</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
@@ -8278,27 +8284,27 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>811</v>
+        <v>775</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>812</v>
+        <v>776</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>813</v>
+        <v>777</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
@@ -8308,37 +8314,37 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>816</v>
+        <v>780</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>817</v>
+        <v>781</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>818</v>
+        <v>782</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>820</v>
+        <v>784</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>821</v>
+        <v>785</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
@@ -8353,82 +8359,82 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>823</v>
+        <v>787</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>824</v>
+        <v>788</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>825</v>
+        <v>789</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>826</v>
+        <v>790</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>827</v>
+        <v>791</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>828</v>
+        <v>792</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>829</v>
+        <v>793</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>831</v>
+        <v>795</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>832</v>
+        <v>796</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>833</v>
+        <v>797</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>834</v>
+        <v>798</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -8437,11 +8443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8452,7 +8458,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>867</v>
+        <v>831</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -8476,15 +8482,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>868</v>
+        <v>895</v>
       </c>
       <c r="D4" t="s">
-        <v>968</v>
+        <v>886</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="D5" t="s">
         <v>191</v>
@@ -8492,47 +8498,47 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>870</v>
+        <v>897</v>
       </c>
       <c r="D6" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="D7" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>871</v>
+        <v>832</v>
       </c>
       <c r="D8" t="s">
-        <v>839</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="D9" t="s">
-        <v>971</v>
+        <v>887</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="D10" t="s">
-        <v>972</v>
+        <v>888</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>874</v>
+        <v>833</v>
       </c>
       <c r="D11" t="s">
         <v>209</v>
@@ -8540,10 +8546,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>839</v>
+        <v>803</v>
       </c>
       <c r="D12" t="s">
-        <v>973</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -8556,15 +8562,15 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>875</v>
+        <v>834</v>
       </c>
       <c r="D14" t="s">
-        <v>974</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>876</v>
+        <v>835</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -8572,7 +8578,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>877</v>
+        <v>836</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -8583,23 +8589,23 @@
         <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>878</v>
+        <v>837</v>
       </c>
       <c r="D18" t="s">
-        <v>975</v>
+        <v>947</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>879</v>
+        <v>838</v>
       </c>
       <c r="D19" t="s">
-        <v>976</v>
+        <v>948</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -8607,7 +8613,7 @@
         <v>339</v>
       </c>
       <c r="D20" t="s">
-        <v>977</v>
+        <v>949</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -8615,63 +8621,63 @@
         <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>978</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="D22" t="s">
-        <v>902</v>
+        <v>950</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="D23" t="s">
-        <v>979</v>
+        <v>951</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>882</v>
+        <v>839</v>
       </c>
       <c r="D24" t="s">
-        <v>980</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>883</v>
+        <v>840</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>891</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>885</v>
+        <v>841</v>
       </c>
       <c r="D27" t="s">
-        <v>981</v>
+        <v>892</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D28" t="s">
-        <v>982</v>
+        <v>952</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -8679,75 +8685,72 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>983</v>
+        <v>953</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>886</v>
+        <v>842</v>
       </c>
       <c r="D30" t="s">
-        <v>984</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>893</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="D32" t="s">
-        <v>985</v>
+        <v>954</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="D33" t="s">
-        <v>986</v>
+        <v>894</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>888</v>
+        <v>843</v>
       </c>
       <c r="D34" t="s">
-        <v>987</v>
+        <v>829</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>697</v>
-      </c>
-      <c r="D35" t="s">
-        <v>865</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>583</v>
+        <v>905</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>890</v>
+        <v>844</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>891</v>
+        <v>845</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -8757,57 +8760,57 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>702</v>
+        <v>666</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>897</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
@@ -8817,32 +8820,32 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>902</v>
+        <v>846</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>904</v>
+        <v>819</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
@@ -8852,37 +8855,37 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>905</v>
+        <v>847</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>545</v>
+        <v>919</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>908</v>
+        <v>848</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
@@ -8892,7 +8895,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>911</v>
+        <v>849</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -8902,57 +8905,57 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>914</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>915</v>
+        <v>851</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>917</v>
+        <v>852</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>918</v>
+        <v>853</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>921</v>
+        <v>854</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
@@ -8962,17 +8965,17 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>922</v>
+        <v>855</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>924</v>
+        <v>856</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
@@ -8982,7 +8985,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
@@ -8992,42 +8995,42 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>927</v>
+        <v>857</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>928</v>
+        <v>858</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>931</v>
+        <v>859</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
@@ -9037,152 +9040,152 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>933</v>
+        <v>860</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>934</v>
+        <v>861</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>935</v>
+        <v>862</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>936</v>
+        <v>863</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>937</v>
+        <v>864</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>938</v>
+        <v>865</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>939</v>
+        <v>866</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>943</v>
+        <v>867</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>944</v>
+        <v>868</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>947</v>
+        <v>869</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>948</v>
+        <v>870</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>949</v>
+        <v>871</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>299</v>
+        <v>939</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>940</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>942</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>952</v>
+        <v>872</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>954</v>
+        <v>873</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>955</v>
+        <v>874</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>820</v>
+        <v>784</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>956</v>
+        <v>875</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>957</v>
+        <v>876</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>958</v>
+        <v>877</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
@@ -9192,42 +9195,42 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>960</v>
+        <v>878</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>961</v>
+        <v>879</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>962</v>
+        <v>880</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>963</v>
+        <v>881</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>964</v>
+        <v>882</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>965</v>
+        <v>883</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>966</v>
+        <v>884</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
@@ -9237,7 +9240,7 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>967</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>

--- a/10_Areal- og stedsutvikling/Arealregnskap/Data/Arealregnskap/Kommunefiler/Mappe for nedlastning/Arealregnskap_Vestfold_2023_oppdatert_20240315.xlsx
+++ b/10_Areal- og stedsutvikling/Arealregnskap/Data/Arealregnskap/Kommunefiler/Mappe for nedlastning/Arealregnskap_Vestfold_2023_oppdatert_20240315.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/10_Areal- og stedsutvikling/Arealregnskap/Data/Arealregnskap/Kommunefiler/Mappe for nedlastning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{0DF23DBC-C9D4-4388-9A72-12458720E0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ECB0D38-3AAD-4A15-9F7E-D1CE6F55AE03}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:40009_{0DF23DBC-C9D4-4388-9A72-12458720E0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C8AB306-EADB-4280-AF3F-2781F2989CC9}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="985">
   <si>
     <t>Færder</t>
   </si>
@@ -1170,72 +1170,27 @@
     <t>Tønsberg</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Fulldyrka jord,161</t>
-  </si>
-  <si>
     <t>01 Bolig eller sentrumsformål,Overflatedyrka jord,3</t>
   </si>
   <si>
     <t>01 Bolig eller sentrumsformål,Innmarksbeite,0</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Åpen fastmark,157</t>
-  </si>
-  <si>
     <t>01 Bolig eller sentrumsformål,Myr,33</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Ferskvann,2</t>
-  </si>
-  <si>
-    <t>02 Fritidsbebyggelse,Bebygd,118</t>
-  </si>
-  <si>
-    <t>02 Fritidsbebyggelse,Samferdsel,13</t>
-  </si>
-  <si>
-    <t>02 Fritidsbebyggelse,Skog,24</t>
-  </si>
-  <si>
-    <t>02 Fritidsbebyggelse,Åpen fastmark,1</t>
-  </si>
-  <si>
     <t>02 Fritidsbebyggelse,Myr,0</t>
   </si>
   <si>
-    <t>03 Tjenesteyting,Fulldyrka jord,126</t>
-  </si>
-  <si>
-    <t>03 Tjenesteyting,Overflatedyrka jord,4</t>
-  </si>
-  <si>
     <t>03 Tjenesteyting,Innmarksbeite,9</t>
   </si>
   <si>
-    <t>03 Tjenesteyting,Skog,334</t>
-  </si>
-  <si>
     <t>03 Tjenesteyting,Myr,1</t>
   </si>
   <si>
-    <t>04 Handel,Bebygd,93</t>
-  </si>
-  <si>
-    <t>04 Handel,Samferdsel,3</t>
-  </si>
-  <si>
-    <t>04 Handel,Fulldyrka jord,3</t>
-  </si>
-  <si>
     <t>04 Handel,Overflatedyrka jord,0</t>
   </si>
   <si>
-    <t>04 Handel,Skog,6</t>
-  </si>
-  <si>
-    <t>04 Handel,Åpen fastmark,11</t>
-  </si>
-  <si>
     <t>05 Turistformål,Bebygd,28</t>
   </si>
   <si>
@@ -1254,105 +1209,39 @@
     <t>05 Turistformål,Hav,1</t>
   </si>
   <si>
-    <t>06 Næringsvirksomhet,Fulldyrka jord,74</t>
-  </si>
-  <si>
     <t>06 Næringsvirksomhet,Innmarksbeite,4</t>
   </si>
   <si>
-    <t>06 Næringsvirksomhet,Åpen fastmark,122</t>
-  </si>
-  <si>
-    <t>06 Næringsvirksomhet,Ferskvann,11</t>
-  </si>
-  <si>
     <t>06 Næringsvirksomhet,Hav,1</t>
   </si>
   <si>
     <t>07 Råstoffutvinning,Bebygd,358</t>
   </si>
   <si>
-    <t>07 Råstoffutvinning,Samferdsel,23</t>
-  </si>
-  <si>
     <t>07 Råstoffutvinning,Fulldyrka jord,75</t>
   </si>
   <si>
-    <t>07 Råstoffutvinning,Skog,199</t>
-  </si>
-  <si>
     <t>07 Råstoffutvinning,Åpen fastmark,80</t>
   </si>
   <si>
-    <t>07 Råstoffutvinning,Ferskvann,0</t>
-  </si>
-  <si>
-    <t>08 Kombinerte formål,Fulldyrka jord,122</t>
-  </si>
-  <si>
     <t>08 Kombinerte formål,Innmarksbeite,1</t>
   </si>
   <si>
-    <t>08 Kombinerte formål,Skog,179</t>
-  </si>
-  <si>
-    <t>08 Kombinerte formål,Åpen fastmark,215</t>
-  </si>
-  <si>
-    <t>09 Idrettsanlegg,Fulldyrka jord,220</t>
-  </si>
-  <si>
-    <t>09 Idrettsanlegg,Innmarksbeite,2</t>
-  </si>
-  <si>
-    <t>09 Idrettsanlegg,Skog,629</t>
-  </si>
-  <si>
-    <t>09 Idrettsanlegg,Åpen fastmark,327</t>
-  </si>
-  <si>
     <t>09 Idrettsanlegg,Ferskvann,2</t>
   </si>
   <si>
-    <t>10 Andre formål,Fulldyrka jord,27</t>
-  </si>
-  <si>
-    <t>10 Andre formål,Skog,213</t>
-  </si>
-  <si>
-    <t>10 Andre formål,Åpen fastmark,85</t>
-  </si>
-  <si>
     <t>10 Andre formål,Myr,4</t>
   </si>
   <si>
     <t>10 Andre formål,Ferskvann,5</t>
   </si>
   <si>
-    <t>11 Samferdselsanlegg,Fulldyrka jord,408</t>
-  </si>
-  <si>
-    <t>11 Samferdselsanlegg,Overflatedyrka jord,4</t>
-  </si>
-  <si>
-    <t>11 Samferdselsanlegg,Innmarksbeite,8</t>
-  </si>
-  <si>
-    <t>11 Samferdselsanlegg,Myr,17</t>
-  </si>
-  <si>
     <t>11 Samferdselsanlegg,Ferskvann,5</t>
   </si>
   <si>
-    <t>12 Blå/grønnstruktur,Fulldyrka jord,174</t>
-  </si>
-  <si>
     <t>12 Blå/grønnstruktur,Overflatedyrka jord,16</t>
   </si>
   <si>
-    <t>12 Blå/grønnstruktur,Myr,122</t>
-  </si>
-  <si>
     <t>13 Forsvaret,Bebygd,5</t>
   </si>
   <si>
@@ -1365,45 +1254,18 @@
     <t>13 Forsvaret,Åpen fastmark,1</t>
   </si>
   <si>
-    <t>14 LNFR,Fulldyrka jord,113205</t>
-  </si>
-  <si>
-    <t>14 LNFR,Overflatedyrka jord,353</t>
-  </si>
-  <si>
     <t>14 LNFR,Myr,2830</t>
   </si>
   <si>
     <t>14 LNFR,Ferskvann,28</t>
   </si>
   <si>
-    <t>15 LNFR spredt,Bebygd,294</t>
-  </si>
-  <si>
-    <t>15 LNFR spredt,Samferdsel,184</t>
-  </si>
-  <si>
-    <t>15 LNFR spredt,Fulldyrka jord,702</t>
-  </si>
-  <si>
     <t>15 LNFR spredt,Overflatedyrka jord,13</t>
   </si>
   <si>
-    <t>15 LNFR spredt,Innmarksbeite,198</t>
-  </si>
-  <si>
-    <t>15 LNFR spredt,Skog,4638</t>
-  </si>
-  <si>
-    <t>15 LNFR spredt,Åpen fastmark,76</t>
-  </si>
-  <si>
     <t>15 LNFR spredt,Myr,1</t>
   </si>
   <si>
-    <t>15 LNFR spredt,Ferskvann,8</t>
-  </si>
-  <si>
     <t>16 Havner og småbåthavner,Åpen fastmark,1</t>
   </si>
   <si>
@@ -1440,51 +1302,21 @@
     <t>18 Akvakultur,Ferskvann,0</t>
   </si>
   <si>
-    <t>19 Udefinert,Bebygd,137</t>
-  </si>
-  <si>
-    <t>19 Udefinert,Samferdsel,51</t>
-  </si>
-  <si>
-    <t>19 Udefinert,Fulldyrka jord,478</t>
-  </si>
-  <si>
     <t>19 Udefinert,Overflatedyrka jord,2</t>
   </si>
   <si>
     <t>19 Udefinert,Innmarksbeite,3</t>
   </si>
   <si>
-    <t>19 Udefinert,Skog,189</t>
-  </si>
-  <si>
-    <t>19 Udefinert,Åpen fastmark,58</t>
-  </si>
-  <si>
-    <t>19 Udefinert,Myr,4</t>
-  </si>
-  <si>
     <t>19 Udefinert,Hav,14</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Bebygd,16</t>
-  </si>
-  <si>
     <t>01 Bolig eller sentrumsformål,Samferdsel,1</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Fulldyrka jord,141</t>
-  </si>
-  <si>
     <t>01 Bolig eller sentrumsformål,Overflatedyrka jord,2</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Skog,1249</t>
-  </si>
-  <si>
-    <t>01 Bolig eller sentrumsformål,Åpen fastmark,86</t>
-  </si>
-  <si>
     <t>01 Bolig eller sentrumsformål,Myr,30</t>
   </si>
   <si>
@@ -1497,15 +1329,9 @@
     <t>03 Tjenesteyting,Samferdsel,0</t>
   </si>
   <si>
-    <t>03 Tjenesteyting,Fulldyrka jord,93</t>
-  </si>
-  <si>
     <t>03 Tjenesteyting,Innmarksbeite,6</t>
   </si>
   <si>
-    <t>03 Tjenesteyting,Skog,162</t>
-  </si>
-  <si>
     <t>04 Handel,Fulldyrka jord,0</t>
   </si>
   <si>
@@ -1515,18 +1341,9 @@
     <t>06 Næringsvirksomhet,Bebygd,5</t>
   </si>
   <si>
-    <t>06 Næringsvirksomhet,Fulldyrka jord,70</t>
-  </si>
-  <si>
     <t>06 Næringsvirksomhet,Innmarksbeite,3</t>
   </si>
   <si>
-    <t>06 Næringsvirksomhet,Skog,1265</t>
-  </si>
-  <si>
-    <t>06 Næringsvirksomhet,Åpen fastmark,89</t>
-  </si>
-  <si>
     <t>07 Råstoffutvinning,Samferdsel,2</t>
   </si>
   <si>
@@ -1548,15 +1365,9 @@
     <t>08 Kombinerte formål,Skog,158</t>
   </si>
   <si>
-    <t>08 Kombinerte formål,Åpen fastmark,181</t>
-  </si>
-  <si>
     <t>09 Idrettsanlegg,Bebygd,8</t>
   </si>
   <si>
-    <t>09 Idrettsanlegg,Fulldyrka jord,161</t>
-  </si>
-  <si>
     <t>09 Idrettsanlegg,Skog,560</t>
   </si>
   <si>
@@ -1566,18 +1377,9 @@
     <t>11 Samferdselsanlegg,Samferdsel,0</t>
   </si>
   <si>
-    <t>11 Samferdselsanlegg,Fulldyrka jord,33</t>
-  </si>
-  <si>
     <t>11 Samferdselsanlegg,Innmarksbeite,0</t>
   </si>
   <si>
-    <t>11 Samferdselsanlegg,Skog,127</t>
-  </si>
-  <si>
-    <t>11 Samferdselsanlegg,Åpen fastmark,55</t>
-  </si>
-  <si>
     <t>11 Samferdselsanlegg,Myr,5</t>
   </si>
   <si>
@@ -2892,109 +2694,292 @@
     <t>11 Samferdselsanlegg,Skog,29</t>
   </si>
   <si>
-    <t>01 Bolig eller sentrumsformål,Bebygd,11881</t>
-  </si>
-  <si>
-    <t>01 Bolig eller sentrumsformål,Samferdsel,587</t>
-  </si>
-  <si>
-    <t>01 Bolig eller sentrumsformål,Skog,1709</t>
-  </si>
-  <si>
-    <t>03 Tjenesteyting,Bebygd,1232</t>
-  </si>
-  <si>
-    <t>03 Tjenesteyting,Samferdsel,141</t>
-  </si>
-  <si>
-    <t>03 Tjenesteyting,Åpen fastmark,73</t>
-  </si>
-  <si>
-    <t>06 Næringsvirksomhet,Bebygd,2399</t>
-  </si>
-  <si>
-    <t>06 Næringsvirksomhet,Samferdsel,252</t>
-  </si>
-  <si>
-    <t>06 Næringsvirksomhet,Skog,1356</t>
-  </si>
-  <si>
-    <t>08 Kombinerte formål,Bebygd,994</t>
-  </si>
-  <si>
-    <t>08 Kombinerte formål,Samferdsel,96</t>
-  </si>
-  <si>
-    <t>09 Idrettsanlegg,Bebygd,329</t>
-  </si>
-  <si>
-    <t>09 Idrettsanlegg,Samferdsel,56</t>
-  </si>
-  <si>
-    <t>10 Andre formål,Bebygd,582</t>
-  </si>
-  <si>
-    <t>10 Andre formål,Samferdsel,46</t>
-  </si>
-  <si>
-    <t>11 Samferdselsanlegg,Bebygd,875</t>
-  </si>
-  <si>
-    <t>11 Samferdselsanlegg,Samferdsel,5372</t>
-  </si>
-  <si>
-    <t>11 Samferdselsanlegg,Skog,547</t>
-  </si>
-  <si>
-    <t>11 Samferdselsanlegg,Åpen fastmark,941</t>
-  </si>
-  <si>
-    <t>12 Blå/grønnstruktur,Bebygd,957</t>
-  </si>
-  <si>
-    <t>12 Blå/grønnstruktur,Samferdsel,274</t>
-  </si>
-  <si>
     <t>12 Blå/grønnstruktur,Innmarksbeite,63</t>
   </si>
   <si>
-    <t>12 Blå/grønnstruktur,Skog,3235</t>
-  </si>
-  <si>
-    <t>12 Blå/grønnstruktur,Åpen fastmark,978</t>
-  </si>
-  <si>
-    <t>12 Blå/grønnstruktur,Ferskvann,18</t>
-  </si>
-  <si>
     <t>12 Blå/grønnstruktur,Hav,31</t>
   </si>
   <si>
-    <t>14 LNFR,Bebygd,7821</t>
-  </si>
-  <si>
-    <t>14 LNFR,Samferdsel,4278</t>
-  </si>
-  <si>
-    <t>14 LNFR,Innmarksbeite,2944</t>
-  </si>
-  <si>
-    <t>14 LNFR,Skog,143322</t>
-  </si>
-  <si>
-    <t>14 LNFR,Åpen fastmark,3620</t>
-  </si>
-  <si>
     <t>16 Havner og småbåthavner,Samferdsel,10</t>
   </si>
   <si>
-    <t>16 Havner og småbåthavner,Hav,261</t>
-  </si>
-  <si>
-    <t>17 Sjø og vassdrag, flerbruk,Ferskvann,4175</t>
-  </si>
-  <si>
-    <t>17 Sjø og vassdrag, flerbruk,Hav,53504</t>
+    <t>01 Bolig eller sentrumsformål,Bebygd,15</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Fulldyrka jord,120</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Skog,1231</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Åpen fastmark,82</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Skog,178</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Åpen fastmark,12</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Fulldyrka jord,68</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Innmarksbeite,2</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Skog,1326</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Åpen fastmark,99</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Åpen fastmark,180</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Myr,0</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Skog,532</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Fulldyrka jord,44</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Skog,174</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Åpen fastmark,65</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Bebygd,11747</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Samferdsel,546</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Fulldyrka jord,138</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Skog,1678</t>
+  </si>
+  <si>
+    <t>01 Bolig eller sentrumsformål,Åpen fastmark,149</t>
+  </si>
+  <si>
+    <t>02 Fritidsbebyggelse,Bebygd,133</t>
+  </si>
+  <si>
+    <t>02 Fritidsbebyggelse,Samferdsel,16</t>
+  </si>
+  <si>
+    <t>02 Fritidsbebyggelse,Skog,18</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Bebygd,1263</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Samferdsel,142</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Fulldyrka jord,114</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Overflatedyrka jord,2</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Skog,360</t>
+  </si>
+  <si>
+    <t>03 Tjenesteyting,Åpen fastmark,79</t>
+  </si>
+  <si>
+    <t>04 Handel,Bebygd,62</t>
+  </si>
+  <si>
+    <t>04 Handel,Samferdsel,1</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Bebygd,2366</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Samferdsel,249</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Fulldyrka jord,72</t>
+  </si>
+  <si>
+    <t>06 Næringsvirksomhet,Skog,1408</t>
+  </si>
+  <si>
+    <t>07 Råstoffutvinning,Samferdsel,18</t>
+  </si>
+  <si>
+    <t>07 Råstoffutvinning,Skog,198</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Bebygd,1112</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Samferdsel,102</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Fulldyrka jord,124</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Overflatedyrka jord,1</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Skog,186</t>
+  </si>
+  <si>
+    <t>08 Kombinerte formål,Åpen fastmark,250</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Bebygd,334</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Samferdsel,54</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Fulldyrka jord,223</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Skog,608</t>
+  </si>
+  <si>
+    <t>09 Idrettsanlegg,Åpen fastmark,314</t>
+  </si>
+  <si>
+    <t>10 Andre formål,Bebygd,553</t>
+  </si>
+  <si>
+    <t>10 Andre formål,Samferdsel,41</t>
+  </si>
+  <si>
+    <t>10 Andre formål,Fulldyrka jord,20</t>
+  </si>
+  <si>
+    <t>10 Andre formål,Skog,174</t>
+  </si>
+  <si>
+    <t>10 Andre formål,Åpen fastmark,75</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Bebygd,880</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Samferdsel,6784</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Fulldyrka jord,574</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Overflatedyrka jord,6</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Innmarksbeite,17</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Skog,622</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Åpen fastmark,972</t>
+  </si>
+  <si>
+    <t>11 Samferdselsanlegg,Myr,18</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Bebygd,947</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Samferdsel,262</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Fulldyrka jord,206</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Skog,3431</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Åpen fastmark,850</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Myr,123</t>
+  </si>
+  <si>
+    <t>12 Blå/grønnstruktur,Ferskvann,17</t>
+  </si>
+  <si>
+    <t>14 LNFR,Bebygd,7878</t>
+  </si>
+  <si>
+    <t>14 LNFR,Samferdsel,2980</t>
+  </si>
+  <si>
+    <t>14 LNFR,Fulldyrka jord,113049</t>
+  </si>
+  <si>
+    <t>14 LNFR,Overflatedyrka jord,352</t>
+  </si>
+  <si>
+    <t>14 LNFR,Innmarksbeite,2935</t>
+  </si>
+  <si>
+    <t>14 LNFR,Skog,143075</t>
+  </si>
+  <si>
+    <t>14 LNFR,Åpen fastmark,3705</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Bebygd,306</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Samferdsel,131</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Fulldyrka jord,700</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Innmarksbeite,199</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Skog,4630</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Åpen fastmark,75</t>
+  </si>
+  <si>
+    <t>15 LNFR spredt,Ferskvann,1</t>
+  </si>
+  <si>
+    <t>16 Havner og småbåthavner,Hav,274</t>
+  </si>
+  <si>
+    <t>17 Sjø og vassdrag, flerbruk,Ferskvann,4187</t>
+  </si>
+  <si>
+    <t>17 Sjø og vassdrag, flerbruk,Hav,53491</t>
+  </si>
+  <si>
+    <t>19 Udefinert,Bebygd,132</t>
+  </si>
+  <si>
+    <t>19 Udefinert,Samferdsel,50</t>
+  </si>
+  <si>
+    <t>19 Udefinert,Fulldyrka jord,479</t>
+  </si>
+  <si>
+    <t>19 Udefinert,Skog,191</t>
+  </si>
+  <si>
+    <t>19 Udefinert,Åpen fastmark,57</t>
+  </si>
+  <si>
+    <t>19 Udefinert,Myr,3</t>
+  </si>
+  <si>
+    <t>19 Udefinert,Ferskvann,4</t>
   </si>
 </sst>
 </file>
@@ -3567,9 +3552,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3607,7 +3592,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3713,7 +3698,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3855,7 +3840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5738,10 +5723,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5776,63 +5761,63 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>955</v>
+        <v>908</v>
       </c>
       <c r="D4" t="s">
-        <v>480</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>956</v>
+        <v>909</v>
       </c>
       <c r="D5" t="s">
-        <v>481</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>910</v>
       </c>
       <c r="D6" t="s">
-        <v>482</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D7" t="s">
-        <v>483</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D8" t="s">
-        <v>484</v>
+        <v>894</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>957</v>
+        <v>911</v>
       </c>
       <c r="D9" t="s">
-        <v>485</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>912</v>
       </c>
       <c r="D10" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -5840,10 +5825,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>737</v>
       </c>
       <c r="D12" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5851,811 +5836,793 @@
         <v>333</v>
       </c>
       <c r="D13" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>387</v>
+        <v>913</v>
       </c>
       <c r="D14" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>388</v>
+        <v>914</v>
       </c>
       <c r="D15" t="s">
-        <v>490</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>915</v>
       </c>
       <c r="D16" t="s">
-        <v>491</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="D17" t="s">
-        <v>492</v>
+        <v>896</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>391</v>
+        <v>916</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>917</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>958</v>
+        <v>918</v>
       </c>
       <c r="D20" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>959</v>
+        <v>919</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>899</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>393</v>
+        <v>920</v>
       </c>
       <c r="D23" t="s">
-        <v>495</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>394</v>
+        <v>921</v>
       </c>
       <c r="D24" t="s">
-        <v>496</v>
+        <v>901</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>395</v>
+        <v>824</v>
       </c>
       <c r="D25" t="s">
-        <v>497</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>960</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>498</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>499</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>922</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>923</v>
       </c>
       <c r="D29" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="D30" t="s">
-        <v>501</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D31" t="s">
-        <v>502</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="D32" t="s">
-        <v>503</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>400</v>
+        <v>595</v>
       </c>
       <c r="D33" t="s">
-        <v>504</v>
+        <v>902</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D34" t="s">
-        <v>505</v>
+        <v>903</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D35" t="s">
-        <v>506</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D36" t="s">
-        <v>507</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D38" t="s">
-        <v>508</v>
+        <v>853</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D39" t="s">
-        <v>368</v>
+        <v>904</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>407</v>
+        <v>924</v>
       </c>
       <c r="D40" t="s">
-        <v>509</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>408</v>
+        <v>925</v>
       </c>
       <c r="D41" t="s">
-        <v>510</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>961</v>
+        <v>926</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>962</v>
+        <v>394</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>409</v>
+        <v>927</v>
       </c>
       <c r="D44" t="s">
-        <v>511</v>
+        <v>905</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="D45" t="s">
-        <v>512</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>963</v>
+        <v>232</v>
       </c>
       <c r="D46" t="s">
-        <v>513</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D47" t="s">
-        <v>514</v>
+        <v>906</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D48" t="s">
-        <v>515</v>
+        <v>907</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>413</v>
+        <v>928</v>
       </c>
       <c r="D49" t="s">
-        <v>516</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="D50" t="s">
-        <v>517</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>415</v>
-      </c>
-      <c r="D51" t="s">
-        <v>378</v>
+        <v>929</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>237</v>
+        <v>930</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>417</v>
+        <v>931</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>418</v>
+        <v>932</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>419</v>
+        <v>933</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>964</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>965</v>
+        <v>934</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>420</v>
+        <v>935</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>421</v>
+        <v>903</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>422</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>423</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>936</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>937</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>966</v>
+        <v>938</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>967</v>
+        <v>939</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>424</v>
+        <v>940</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>426</v>
+        <v>941</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>427</v>
+        <v>942</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>428</v>
+        <v>943</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>431</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>432</v>
+        <v>946</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>433</v>
+        <v>947</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>266</v>
+        <v>948</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>434</v>
+        <v>951</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>435</v>
+        <v>952</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>436</v>
+        <v>953</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>972</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>973</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>437</v>
+        <v>954</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>438</v>
+        <v>955</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>956</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>974</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>975</v>
+        <v>889</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>439</v>
+        <v>957</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>440</v>
+        <v>958</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>978</v>
+        <v>890</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>979</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>980</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>443</v>
+        <v>961</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>444</v>
+        <v>962</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>445</v>
+        <v>963</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>446</v>
+        <v>966</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>447</v>
+        <v>967</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>983</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>984</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>448</v>
+        <v>969</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>449</v>
+        <v>970</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>451</v>
+        <v>971</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>452</v>
+        <v>972</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>453</v>
+        <v>973</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>455</v>
+        <v>974</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>456</v>
+        <v>806</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>457</v>
+        <v>891</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>872</v>
+        <v>975</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>986</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>987</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>312</v>
+        <v>976</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>462</v>
+        <v>977</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>988</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>989</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>464</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>465</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>466</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>469</v>
+        <v>978</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>470</v>
+        <v>979</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>177</v>
+        <v>980</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>473</v>
+        <v>981</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>474</v>
+        <v>982</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>475</v>
+        <v>983</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>476</v>
+        <v>984</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>479</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -6680,7 +6647,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -6704,55 +6671,55 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
-        <v>647</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="D5" t="s">
-        <v>648</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
-        <v>649</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
-        <v>650</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="D9" t="s">
-        <v>651</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -6760,7 +6727,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="D11" t="s">
         <v>333</v>
@@ -6771,12 +6738,12 @@
         <v>333</v>
       </c>
       <c r="D12" t="s">
-        <v>652</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -6784,23 +6751,23 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="D14" t="s">
-        <v>653</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="D15" t="s">
-        <v>654</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="D16" t="s">
         <v>339</v>
@@ -6808,82 +6775,82 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
-        <v>655</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="D18" t="s">
-        <v>656</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="D19" t="s">
-        <v>657</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="D20" t="s">
-        <v>658</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>535</v>
+        <v>469</v>
       </c>
       <c r="D21" t="s">
-        <v>659</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
       <c r="D22" t="s">
-        <v>660</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
       <c r="D23" t="s">
-        <v>494</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="D24" t="s">
-        <v>661</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>539</v>
+        <v>473</v>
       </c>
       <c r="D25" t="s">
-        <v>662</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="D26" t="s">
-        <v>663</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -6891,7 +6858,7 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>664</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -6899,47 +6866,47 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>665</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>541</v>
+        <v>475</v>
       </c>
       <c r="D29" t="s">
-        <v>556</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="D30" t="s">
-        <v>666</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="D31" t="s">
-        <v>667</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="D32" t="s">
-        <v>668</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="D33" t="s">
-        <v>669</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -6947,47 +6914,47 @@
         <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>670</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="D35" t="s">
-        <v>671</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>547</v>
+        <v>481</v>
       </c>
       <c r="D36" t="s">
-        <v>672</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="D37" t="s">
-        <v>673</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="D38" t="s">
-        <v>674</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="D39" t="s">
-        <v>675</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -6995,7 +6962,7 @@
         <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>676</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -7003,28 +6970,28 @@
         <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>677</v>
+        <v>611</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>551</v>
+        <v>485</v>
       </c>
       <c r="D42" t="s">
-        <v>678</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
       <c r="D43" t="s">
-        <v>679</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="D44" t="s">
         <v>72</v>
@@ -7032,55 +6999,55 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
       <c r="D45" t="s">
-        <v>680</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>554</v>
+        <v>488</v>
       </c>
       <c r="D46" t="s">
-        <v>681</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>555</v>
+        <v>489</v>
       </c>
       <c r="D47" t="s">
-        <v>591</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>556</v>
+        <v>490</v>
       </c>
       <c r="D48" t="s">
-        <v>682</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>557</v>
+        <v>491</v>
       </c>
       <c r="D49" t="s">
-        <v>683</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>558</v>
+        <v>492</v>
       </c>
       <c r="D50" t="s">
-        <v>684</v>
+        <v>618</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>559</v>
+        <v>493</v>
       </c>
       <c r="D51" t="s">
         <v>378</v>
@@ -7088,60 +7055,60 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>560</v>
+        <v>494</v>
       </c>
       <c r="D52" t="s">
-        <v>685</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>561</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>562</v>
+        <v>496</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>564</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>565</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>566</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>567</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>569</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>570</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -7156,132 +7123,132 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>571</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>572</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>573</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>574</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>576</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>577</v>
+        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>578</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>579</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>580</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>581</v>
+        <v>515</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>582</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>583</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>584</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>585</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>586</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>587</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>588</v>
+        <v>522</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>589</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>591</v>
+        <v>525</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>592</v>
+        <v>526</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>593</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>594</v>
+        <v>528</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>595</v>
+        <v>529</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
@@ -7291,142 +7258,142 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>597</v>
+        <v>531</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>598</v>
+        <v>532</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>599</v>
+        <v>533</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>600</v>
+        <v>534</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>601</v>
+        <v>535</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>602</v>
+        <v>536</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>603</v>
+        <v>537</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>605</v>
+        <v>539</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>606</v>
+        <v>540</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>608</v>
+        <v>542</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>609</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>610</v>
+        <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>612</v>
+        <v>546</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>613</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>615</v>
+        <v>549</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>616</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>617</v>
+        <v>551</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>618</v>
+        <v>552</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>619</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>621</v>
+        <v>555</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>622</v>
+        <v>556</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>623</v>
+        <v>557</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
@@ -7436,42 +7403,42 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>624</v>
+        <v>558</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>625</v>
+        <v>559</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>626</v>
+        <v>560</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>627</v>
+        <v>561</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>629</v>
+        <v>563</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>630</v>
+        <v>564</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
@@ -7481,77 +7448,77 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>631</v>
+        <v>565</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>632</v>
+        <v>566</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>635</v>
+        <v>569</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>636</v>
+        <v>570</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>637</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>638</v>
+        <v>572</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>639</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>640</v>
+        <v>574</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>641</v>
+        <v>575</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>642</v>
+        <v>576</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>643</v>
+        <v>577</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>644</v>
+        <v>578</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>645</v>
+        <v>579</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
@@ -7561,7 +7528,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>646</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -7585,7 +7552,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>686</v>
+        <v>620</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -7609,23 +7576,23 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>687</v>
+        <v>621</v>
       </c>
       <c r="D4" t="s">
-        <v>799</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>688</v>
+        <v>622</v>
       </c>
       <c r="D5" t="s">
-        <v>800</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>689</v>
+        <v>623</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -7636,7 +7603,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>801</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7644,20 +7611,20 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>802</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>690</v>
+        <v>624</v>
       </c>
       <c r="D9" t="s">
-        <v>803</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="D10" t="s">
         <v>333</v>
@@ -7673,26 +7640,26 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>692</v>
+        <v>626</v>
       </c>
       <c r="D12" t="s">
-        <v>804</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>693</v>
+        <v>627</v>
       </c>
       <c r="D13" t="s">
-        <v>805</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>694</v>
+        <v>628</v>
       </c>
       <c r="D14" t="s">
-        <v>806</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7700,7 +7667,7 @@
         <v>199</v>
       </c>
       <c r="D15" t="s">
-        <v>807</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -7708,12 +7675,12 @@
         <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>808</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>695</v>
+        <v>629</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
@@ -7721,18 +7688,18 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
       <c r="D18" t="s">
-        <v>809</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D19" t="s">
-        <v>810</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7740,28 +7707,28 @@
         <v>339</v>
       </c>
       <c r="D20" t="s">
-        <v>811</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>697</v>
+        <v>631</v>
       </c>
       <c r="D21" t="s">
-        <v>812</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>698</v>
+        <v>632</v>
       </c>
       <c r="D22" t="s">
-        <v>813</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>699</v>
+        <v>633</v>
       </c>
       <c r="D23" t="s">
         <v>355</v>
@@ -7769,26 +7736,26 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>657</v>
+        <v>591</v>
       </c>
       <c r="D24" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>700</v>
+        <v>634</v>
       </c>
       <c r="D25" t="s">
-        <v>815</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>701</v>
+        <v>635</v>
       </c>
       <c r="D26" t="s">
-        <v>816</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7796,7 +7763,7 @@
         <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>722</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7804,12 +7771,12 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>817</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>702</v>
+        <v>636</v>
       </c>
       <c r="D29" t="s">
         <v>363</v>
@@ -7817,23 +7784,23 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>703</v>
+        <v>637</v>
       </c>
       <c r="D30" t="s">
-        <v>818</v>
+        <v>752</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="D31" t="s">
-        <v>819</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>704</v>
+        <v>638</v>
       </c>
       <c r="D32" t="s">
         <v>98</v>
@@ -7841,55 +7808,55 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="D33" t="s">
-        <v>820</v>
+        <v>754</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>705</v>
+        <v>639</v>
       </c>
       <c r="D34" t="s">
-        <v>821</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>706</v>
+        <v>640</v>
       </c>
       <c r="D35" t="s">
-        <v>822</v>
+        <v>756</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>707</v>
+        <v>641</v>
       </c>
       <c r="D36" t="s">
-        <v>823</v>
+        <v>757</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>708</v>
+        <v>642</v>
       </c>
       <c r="D37" t="s">
-        <v>824</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>709</v>
+        <v>643</v>
       </c>
       <c r="D38" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>710</v>
+        <v>644</v>
       </c>
       <c r="D39" t="s">
         <v>258</v>
@@ -7897,23 +7864,23 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>711</v>
+        <v>645</v>
       </c>
       <c r="D40" t="s">
-        <v>825</v>
+        <v>759</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>712</v>
+        <v>646</v>
       </c>
       <c r="D41" t="s">
-        <v>826</v>
+        <v>760</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>713</v>
+        <v>647</v>
       </c>
       <c r="D42" t="s">
         <v>122</v>
@@ -7921,39 +7888,39 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>714</v>
+        <v>648</v>
       </c>
       <c r="D43" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>715</v>
+        <v>649</v>
       </c>
       <c r="D44" t="s">
-        <v>827</v>
+        <v>761</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>716</v>
+        <v>650</v>
       </c>
       <c r="D45" t="s">
-        <v>828</v>
+        <v>762</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>717</v>
+        <v>651</v>
       </c>
       <c r="D46" t="s">
-        <v>829</v>
+        <v>763</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>718</v>
+        <v>652</v>
       </c>
       <c r="D47" t="s">
         <v>378</v>
@@ -7961,45 +7928,45 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>719</v>
+        <v>653</v>
       </c>
       <c r="D48" t="s">
-        <v>830</v>
+        <v>764</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>720</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>721</v>
+        <v>655</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>722</v>
+        <v>656</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>723</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>724</v>
+        <v>658</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>725</v>
+        <v>659</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>726</v>
+        <v>660</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
@@ -8009,12 +7976,12 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>727</v>
+        <v>661</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>728</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
@@ -8024,47 +7991,47 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>729</v>
+        <v>663</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>730</v>
+        <v>664</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>731</v>
+        <v>665</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>732</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>733</v>
+        <v>667</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>734</v>
+        <v>668</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>735</v>
+        <v>669</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>736</v>
+        <v>670</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>737</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -8074,62 +8041,62 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>738</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>739</v>
+        <v>673</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>740</v>
+        <v>674</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>741</v>
+        <v>675</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>742</v>
+        <v>676</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>743</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>744</v>
+        <v>678</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>745</v>
+        <v>679</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>746</v>
+        <v>680</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>747</v>
+        <v>681</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>748</v>
+        <v>682</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>749</v>
+        <v>683</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
@@ -8139,12 +8106,12 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>750</v>
+        <v>684</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>751</v>
+        <v>685</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
@@ -8154,7 +8121,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>752</v>
+        <v>686</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
@@ -8164,117 +8131,117 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>753</v>
+        <v>687</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>754</v>
+        <v>688</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>755</v>
+        <v>689</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>756</v>
+        <v>690</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>757</v>
+        <v>691</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>758</v>
+        <v>692</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>759</v>
+        <v>693</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>760</v>
+        <v>694</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>761</v>
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>605</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>762</v>
+        <v>696</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>763</v>
+        <v>697</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>764</v>
+        <v>698</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>765</v>
+        <v>699</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>766</v>
+        <v>700</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>768</v>
+        <v>702</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>769</v>
+        <v>703</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>770</v>
+        <v>704</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>771</v>
+        <v>705</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>772</v>
+        <v>706</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>773</v>
+        <v>707</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>774</v>
+        <v>708</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
@@ -8284,27 +8251,27 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>775</v>
+        <v>709</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>776</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>777</v>
+        <v>711</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>778</v>
+        <v>712</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
@@ -8314,37 +8281,37 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>779</v>
+        <v>713</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>780</v>
+        <v>714</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>781</v>
+        <v>715</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>782</v>
+        <v>716</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>783</v>
+        <v>717</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>784</v>
+        <v>718</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>785</v>
+        <v>719</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
@@ -8359,82 +8326,82 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>786</v>
+        <v>720</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>787</v>
+        <v>721</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>788</v>
+        <v>722</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>789</v>
+        <v>723</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>790</v>
+        <v>724</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>791</v>
+        <v>725</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>792</v>
+        <v>726</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>793</v>
+        <v>727</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>794</v>
+        <v>728</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>795</v>
+        <v>729</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>796</v>
+        <v>730</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>797</v>
+        <v>731</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>798</v>
+        <v>732</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>479</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -8458,7 +8425,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>831</v>
+        <v>765</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -8482,15 +8449,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>895</v>
+        <v>829</v>
       </c>
       <c r="D4" t="s">
-        <v>886</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>896</v>
+        <v>830</v>
       </c>
       <c r="D5" t="s">
         <v>191</v>
@@ -8498,47 +8465,47 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>897</v>
+        <v>831</v>
       </c>
       <c r="D6" t="s">
-        <v>945</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
-        <v>946</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>832</v>
+        <v>766</v>
       </c>
       <c r="D8" t="s">
-        <v>803</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>898</v>
+        <v>832</v>
       </c>
       <c r="D9" t="s">
-        <v>887</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>899</v>
+        <v>833</v>
       </c>
       <c r="D10" t="s">
-        <v>888</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>833</v>
+        <v>767</v>
       </c>
       <c r="D11" t="s">
         <v>209</v>
@@ -8546,10 +8513,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>803</v>
+        <v>737</v>
       </c>
       <c r="D12" t="s">
-        <v>889</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -8562,15 +8529,15 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>834</v>
+        <v>768</v>
       </c>
       <c r="D14" t="s">
-        <v>890</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>835</v>
+        <v>769</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -8578,7 +8545,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>836</v>
+        <v>770</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -8589,23 +8556,23 @@
         <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>908</v>
+        <v>842</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>837</v>
+        <v>771</v>
       </c>
       <c r="D18" t="s">
-        <v>947</v>
+        <v>881</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>838</v>
+        <v>772</v>
       </c>
       <c r="D19" t="s">
-        <v>948</v>
+        <v>882</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -8613,7 +8580,7 @@
         <v>339</v>
       </c>
       <c r="D20" t="s">
-        <v>949</v>
+        <v>883</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -8621,28 +8588,28 @@
         <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>846</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>900</v>
+        <v>834</v>
       </c>
       <c r="D22" t="s">
-        <v>950</v>
+        <v>884</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>901</v>
+        <v>835</v>
       </c>
       <c r="D23" t="s">
-        <v>951</v>
+        <v>885</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>839</v>
+        <v>773</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -8650,7 +8617,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>840</v>
+        <v>774</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
@@ -8658,26 +8625,26 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>902</v>
+        <v>836</v>
       </c>
       <c r="D26" t="s">
-        <v>891</v>
+        <v>825</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>841</v>
+        <v>775</v>
       </c>
       <c r="D27" t="s">
-        <v>892</v>
+        <v>826</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D28" t="s">
-        <v>952</v>
+        <v>886</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -8685,12 +8652,12 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>953</v>
+        <v>887</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>842</v>
+        <v>776</v>
       </c>
       <c r="D30" t="s">
         <v>72</v>
@@ -8698,59 +8665,59 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>903</v>
+        <v>837</v>
       </c>
       <c r="D31" t="s">
-        <v>893</v>
+        <v>827</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="D32" t="s">
-        <v>954</v>
+        <v>888</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="D33" t="s">
-        <v>894</v>
+        <v>828</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>843</v>
+        <v>777</v>
       </c>
       <c r="D34" t="s">
-        <v>829</v>
+        <v>763</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>661</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>904</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>905</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>844</v>
+        <v>778</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>845</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -8760,42 +8727,42 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>906</v>
+        <v>840</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>907</v>
+        <v>841</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>908</v>
+        <v>842</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>909</v>
+        <v>843</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>910</v>
+        <v>844</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>666</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>911</v>
+        <v>845</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -8805,12 +8772,12 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>912</v>
+        <v>846</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>913</v>
+        <v>847</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
@@ -8820,32 +8787,32 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>914</v>
+        <v>848</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>915</v>
+        <v>849</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>846</v>
+        <v>780</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>916</v>
+        <v>850</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>819</v>
+        <v>753</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
@@ -8855,37 +8822,37 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>847</v>
+        <v>781</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>917</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>918</v>
+        <v>852</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>919</v>
+        <v>853</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>848</v>
+        <v>782</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>920</v>
+        <v>854</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>921</v>
+        <v>855</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
@@ -8895,7 +8862,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>849</v>
+        <v>783</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -8905,57 +8872,57 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>922</v>
+        <v>856</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>923</v>
+        <v>857</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>850</v>
+        <v>784</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>582</v>
+        <v>516</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>851</v>
+        <v>785</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>924</v>
+        <v>858</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>852</v>
+        <v>786</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>853</v>
+        <v>787</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>925</v>
+        <v>859</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>926</v>
+        <v>860</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>854</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
@@ -8965,17 +8932,17 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>855</v>
+        <v>789</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>927</v>
+        <v>861</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>856</v>
+        <v>790</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
@@ -8985,7 +8952,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>752</v>
+        <v>686</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
@@ -8995,197 +8962,197 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>928</v>
+        <v>862</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>929</v>
+        <v>863</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>857</v>
+        <v>791</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>600</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>858</v>
+        <v>792</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>930</v>
+        <v>864</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>931</v>
+        <v>865</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>859</v>
+        <v>793</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>932</v>
+        <v>866</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>860</v>
+        <v>794</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>861</v>
+        <v>795</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>862</v>
+        <v>796</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>863</v>
+        <v>797</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>864</v>
+        <v>798</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>865</v>
+        <v>799</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>866</v>
+        <v>800</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>933</v>
+        <v>867</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>934</v>
+        <v>868</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>935</v>
+        <v>869</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>867</v>
+        <v>801</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>868</v>
+        <v>802</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>936</v>
+        <v>870</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>937</v>
+        <v>871</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>869</v>
+        <v>803</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>870</v>
+        <v>804</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>871</v>
+        <v>805</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>938</v>
+        <v>872</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>939</v>
+        <v>873</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>940</v>
+        <v>874</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>941</v>
+        <v>875</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>942</v>
+        <v>876</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>872</v>
+        <v>806</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>943</v>
+        <v>877</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>873</v>
+        <v>807</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>874</v>
+        <v>808</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>784</v>
+        <v>718</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>875</v>
+        <v>809</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>876</v>
+        <v>810</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>877</v>
+        <v>811</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
@@ -9195,42 +9162,42 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>944</v>
+        <v>878</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>878</v>
+        <v>812</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>879</v>
+        <v>813</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>880</v>
+        <v>814</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>881</v>
+        <v>815</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>882</v>
+        <v>816</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>883</v>
+        <v>817</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>884</v>
+        <v>818</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
@@ -9240,7 +9207,7 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>885</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
